--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelDatCuThe.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelDatCuThe.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\excel csdlgia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F27305-F8B8-4ACE-A577-0CAD3504E6B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9866879-1CF8-4729-8113-707AE9507A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="4170" windowWidth="21600" windowHeight="11310" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Tên đường giới hạn khu vực</t>
   </si>
@@ -58,19 +58,30 @@
   </si>
   <si>
     <t>Mặt Đường</t>
+  </si>
+  <si>
+    <t>GIÁ ĐẤT CỤ THỂ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -82,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -90,12 +101,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,82 +456,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" customWidth="1"/>
+    <col min="2" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="19.125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="27.125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="28.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
+      <c r="D3" s="6">
         <v>5000</v>
       </c>
-      <c r="E2">
+      <c r="E3" s="6">
         <v>6000</v>
       </c>
-      <c r="F2">
+      <c r="F3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="D4" s="6">
         <v>5000</v>
       </c>
-      <c r="E3">
+      <c r="E4" s="6">
         <v>6000</v>
       </c>
-      <c r="F3">
+      <c r="F4" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi định dạng giá trị" error="Giá trị vừa nhập có định dạng không hợp lệ" sqref="D3:E1048576" xr:uid="{8CAB3925-2684-4102-B3F9-B7D8D5319481}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi định dạng giá trị" error="Giá trị vừa nhập có định dạng không hợp lệ" sqref="F3:F1048576" xr:uid="{283AACA8-522C-49DC-89D0-80A5D759DB80}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>